--- a/Nomalizacion_producto_integrador_tiendecita.xlsx
+++ b/Nomalizacion_producto_integrador_tiendecita.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/940784abf5a9a705/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ehileen\Desktop\proyecto integrador\Cafe_Cesde\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="8_{7C42AFE1-C017-4808-8DF2-F3EF2646E95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A1575FC-90F4-4F53-8CB5-D9C1F9FDBA28}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59EFB83-AD56-464F-B6CE-B3553FDB58EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B9AA7CD2-4CC1-4B89-BA27-09EE2ACBED72}"/>
   </bookViews>
@@ -252,12 +252,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -273,10 +274,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -596,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDBB42C-0497-4C13-B04E-26CBF24092BD}">
-  <dimension ref="B2:BJ26"/>
+  <dimension ref="B2:BF26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -660,7 +657,7 @@
     <col min="73" max="73" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:58" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
@@ -742,32 +739,23 @@
       <c r="AF2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AP2" s="1"/>
-      <c r="AQ2" s="1"/>
-      <c r="AR2" s="1"/>
-      <c r="AS2" s="1"/>
-      <c r="AU2" s="1"/>
-      <c r="AV2" s="1"/>
-      <c r="AW2" s="1"/>
-      <c r="AX2" s="1"/>
-      <c r="AY2" s="1"/>
-      <c r="AZ2" s="1"/>
-      <c r="BB2" s="1"/>
-      <c r="BC2" s="1"/>
-      <c r="BD2" s="1"/>
-      <c r="BE2" s="1"/>
-      <c r="BF2" s="1"/>
-      <c r="BH2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="2:62" x14ac:dyDescent="0.3">
+      <c r="AP2" s="5"/>
+      <c r="AQ2" s="5"/>
+      <c r="AR2" s="5"/>
+      <c r="AS2" s="5"/>
+      <c r="AU2" s="5"/>
+      <c r="AV2" s="5"/>
+      <c r="AW2" s="5"/>
+      <c r="AX2" s="5"/>
+      <c r="AY2" s="5"/>
+      <c r="AZ2" s="5"/>
+      <c r="BB2" s="5"/>
+      <c r="BC2" s="5"/>
+      <c r="BD2" s="5"/>
+      <c r="BE2" s="5"/>
+      <c r="BF2" s="5"/>
+    </row>
+    <row r="3" spans="2:58" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -795,26 +783,38 @@
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
-      <c r="AP3" s="1"/>
-      <c r="AQ3" s="1"/>
-      <c r="AR3" s="1"/>
-      <c r="AS3" s="1"/>
-      <c r="AU3" s="1"/>
-      <c r="AV3" s="1"/>
-      <c r="AW3" s="1"/>
-      <c r="AX3" s="1"/>
-      <c r="AY3" s="1"/>
-      <c r="AZ3" s="1"/>
-      <c r="BB3" s="1"/>
-      <c r="BC3" s="1"/>
-      <c r="BD3" s="1"/>
-      <c r="BE3" s="1"/>
-      <c r="BF3" s="1"/>
-      <c r="BH3" s="1"/>
-      <c r="BI3" s="1"/>
-      <c r="BJ3" s="1"/>
-    </row>
-    <row r="5" spans="2:62" x14ac:dyDescent="0.3">
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="5"/>
+      <c r="AS3" s="5"/>
+      <c r="AU3" s="5"/>
+      <c r="AV3" s="5"/>
+      <c r="AW3" s="5"/>
+      <c r="AX3" s="5"/>
+      <c r="AY3" s="5"/>
+      <c r="AZ3" s="5"/>
+      <c r="BB3" s="5"/>
+      <c r="BC3" s="5"/>
+      <c r="BD3" s="5"/>
+      <c r="BE3" s="5"/>
+      <c r="BF3" s="5"/>
+    </row>
+    <row r="4" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="AP4" s="5"/>
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="5"/>
+      <c r="AS4" s="5"/>
+    </row>
+    <row r="5" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="Q5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="U5" s="1" t="s">
         <v>12</v>
       </c>
@@ -828,13 +828,16 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:58" x14ac:dyDescent="0.3">
       <c r="H7" s="1" t="s">
         <v>3</v>
       </c>
@@ -845,7 +848,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:58" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
@@ -865,14 +868,14 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:58" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:58" x14ac:dyDescent="0.3">
       <c r="H10" s="1" t="s">
         <v>0</v>
       </c>
@@ -901,7 +904,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:58" x14ac:dyDescent="0.3">
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -912,7 +915,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="14" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:58" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
@@ -941,7 +944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:58" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
